--- a/public/technical_forecast.xlsx
+++ b/public/technical_forecast.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Пример" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Пример!$A$1:$K$5985</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Пример!$A$1:$L$5985</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>Скважина</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>KBM</t>
+  </si>
+  <si>
+    <t>PES</t>
   </si>
 </sst>
 </file>
@@ -415,372 +418,375 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>44228</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>26.991999999999997</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>44256</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>29.945999999999998</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>44228</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>56.649626873215198</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>740.91999382688357</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>26.991999999999997</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>44256</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>62.559279277842535</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>819.92232941328507</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>29.945999999999998</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
       <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>44228</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>15.47867192679846</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>727.91803537892793</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>26.991999999999997</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
       </c>
       <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>44256</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>17.09339696245253</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>805.53400658976409</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29.945999999999998</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
       </c>
       <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>44228</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>28.723825758410861</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>586.95867706149681</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>26.991999999999997</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
       </c>
       <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>44256</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>31.72027666784393</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>649.54452542152546</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>29.945999999999998</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>44228</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>26.991999999999997</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
       <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K5985"/>
+  <autoFilter ref="A1:L5985"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/technical_forecast.xlsx
+++ b/public/technical_forecast.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Пример" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Пример!$A$1:$K$5985</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Пример!$A$1:$L$5985</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
   <si>
     <t>Скважина</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>KBM</t>
+  </si>
+  <si>
+    <t>PES</t>
+  </si>
+  <si>
+    <t>Каламкасмунайгаз</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,13 +131,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -415,372 +446,402 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
         <v>44228</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>26.991999999999997</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1">
         <v>44256</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>29.945999999999998</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
         <v>44228</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>56.649626873215198</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>740.91999382688357</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>26.991999999999997</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
         <v>44256</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>62.559279277842535</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>819.92232941328507</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>29.945999999999998</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
       <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
         <v>44228</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>15.47867192679846</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>727.91803537892793</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>26.991999999999997</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
       </c>
       <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
         <v>44256</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>17.09339696245253</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>805.53400658976409</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29.945999999999998</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
       </c>
       <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
         <v>44228</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>28.723825758410861</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>586.95867706149681</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>26.991999999999997</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
       </c>
       <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
         <v>44256</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>31.72027666784393</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>649.54452542152546</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>29.945999999999998</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
         <v>44228</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>26.991999999999997</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
       <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K5985"/>
+  <autoFilter ref="A1:L5985"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>